--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1057,10 +1069,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1104,28 +1116,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1150,28 +1162,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1868,10 +1880,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1915,28 +1927,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1961,28 +1973,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2534,10 +2546,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2581,28 +2593,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2627,28 +2639,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3171,10 +3183,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3218,28 +3230,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3264,28 +3276,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3692,10 +3704,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3739,28 +3751,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3785,28 +3797,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3923,10 +3935,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
